--- a/e-Invoice/src/einvoice/docs/einvoice_design.xlsx
+++ b/e-Invoice/src/einvoice/docs/einvoice_design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://frbprod1-my.sharepoint.com/personal/kelly_kinney_mpls_frb_org/Documents/PSOG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelly/new_github/Discovery-Tools/e-Invoice/src/einvoice/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAD3068D-9E22-4306-AC66-D5363FACB2A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995C6F07-1F06-6A45-8675-524C37179A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="915" windowWidth="24975" windowHeight="15090" xr2:uid="{B4478B27-5C10-491A-8BE0-F9705533FE03}"/>
+    <workbookView xWindow="42400" yWindow="7660" windowWidth="24980" windowHeight="15100" xr2:uid="{B4478B27-5C10-491A-8BE0-F9705533FE03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Package</t>
   </si>
@@ -60,16 +60,6 @@
 einvoice.html</t>
   </si>
   <si>
-    <t>Party ID (textfield)
-Party ID Type  Schema (textfield)
-e-Invoice as JSON (textarea)</t>
-  </si>
-  <si>
-    <t>ei_party_id (str)
-ei_part_id_type_schema (str)
-einvoice (str)</t>
-  </si>
-  <si>
     <t>UI Input form to submit an e-Invoice.</t>
   </si>
   <si>
@@ -79,14 +69,6 @@
     <t>ei_listener</t>
   </si>
   <si>
-    <t>ei_party_id (str), ei_part_id_type_schema (str), einvoice (str)</t>
-  </si>
-  <si>
-    <t>ei_party_id (str)
-ei_party_id_type_schema (str)
-einvoice (str)</t>
-  </si>
-  <si>
     <t>Interface between web ui and dns lookup.  Provides CLI access/entry point.</t>
   </si>
   <si>
@@ -96,32 +78,6 @@
     <t>ei_handler</t>
   </si>
   <si>
-    <t>ei_party_id (str), ei_part_id_type_schema (str)</t>
-  </si>
-  <si>
-    <t>ei_sml_query (str)
-ei_sml_dns_srv_addr (str)
-ei_sml_dns_srv_port (str)</t>
-  </si>
-  <si>
-    <t>Process the request to create the SML query.  This is where all the fold/spindle/mutilate occurs to create the lookup search string.</t>
-  </si>
-  <si>
-    <t>Obtains dns server and port from ei_conf.py
-ei_handler manages calls to ei_sml_query and ei_smp_query, and final handoff to ei_delivery _gateway</t>
-  </si>
-  <si>
-    <t>ei_sml_query</t>
-  </si>
-  <si>
-    <t>ei_sml_query (str),
-ei_dns_server (str),
-ei_dns_port (str)</t>
-  </si>
-  <si>
-    <t>ei_smp_uri (str)</t>
-  </si>
-  <si>
     <t>Do a DNS NAPTR look-up using the search string provided.   Value returned should be the URI of an SMP service.</t>
   </si>
   <si>
@@ -129,26 +85,15 @@
   </si>
   <si>
     <t>ei_smp_query</t>
-  </si>
-  <si>
-    <t>ei_smp_doc (obj),
-ei_delivery_addr (str)</t>
   </si>
   <si>
     <t>Using the URI from the SML discovery component look-up the SMP service capability.
 Return includes uri for Access Point #2 or delivery.</t>
   </si>
   <si>
-    <t>This will be REST request per a standard API.  Returns an object with service capability codes included???</t>
-  </si>
-  <si>
     <t>ei_delivery_gateway</t>
   </si>
   <si>
-    <t>ei_delivery_addr (str),
-einvoice (str)</t>
-  </si>
-  <si>
     <t>ei_delivery_status (str)</t>
   </si>
   <si>
@@ -176,9 +121,6 @@
     <t>This will create an einvoice populated with fake data.</t>
   </si>
   <si>
-    <t>ei_conf</t>
-  </si>
-  <si>
     <t xml:space="preserve">Configuration with relevant external data, e.g., DNS server, etc. </t>
   </si>
   <si>
@@ -203,7 +145,114 @@
     <t>Contains functional tests of all relevant modules.</t>
   </si>
   <si>
-    <t>Return status code to ei_handler.</t>
+    <t>ei_sml_lookup</t>
+  </si>
+  <si>
+    <t>ei_config_tool.py</t>
+  </si>
+  <si>
+    <t>ei_conf_fn(str) - the name of a file containing a dictionary of configuration values.</t>
+  </si>
+  <si>
+    <t>Party ID (html textfield),
+Party ID Type  Schema (html textfield),
+e-Invoice as JSON (html textarea)</t>
+  </si>
+  <si>
+    <t>ei_party_id (str) - The Party ID as a string.
+ei_party_id_type_schema (str) - The Party ID Type Schema as a string.
+einvoice (str) - The einvoice as a string (formatted as JSON).</t>
+  </si>
+  <si>
+    <t>ei_party_id (str) - The Party ID as a srt.
+ei_party_id_type_schema (str) - The Party ID Type Schema as a string.
+einvoice (str) - The einvoice as a string (formatted as JSON).</t>
+  </si>
+  <si>
+    <t>ei_party_id (str _party_id), 
+ei_party_id_type_schema (str _party_id_type_schema), 
+einvoice (str _einvoice)</t>
+  </si>
+  <si>
+    <t>ei_party_id (str _party_id), 
+ei_party_id_type_schema (str _party_id_type_schema)
+einvoice(str _einvoice)</t>
+  </si>
+  <si>
+    <t>ei_ap2_uri (str) - The URI of Access Point #2 (or terminal e-Invoice endpoint)
+ei_participant_svc_dtls (str) - Tentatively a string (could be a list or dictionary) of participant service details obtained from the SMP.
+einvoice (str) -  The einvoice as a string (formatted as JSON).</t>
+  </si>
+  <si>
+    <t>Process the request to create the SML lookup.
+Perform the SML UNAPTR DNS look-up.
+Receive the URI for the SMP from the SML.
+Format the REST-ful service call to the SMP to retrieve service details.
+Make REST service call to the SMP at the URI providied by the SML to obtain participant service details.  
+Parse response as necessary to obtain service detail codes and URI to Access Point #2.
+Forward service codes, URI, and einovice to ei_delivery_gateway.</t>
+  </si>
+  <si>
+    <t>ei_smp_uri (str) - The URI of the SMP for the next step.</t>
+  </si>
+  <si>
+    <t>ei_sml_query (str _sml_query),
+ei_dns_server (str _sml_dns_server),
+ei_dns_port (str _sml_port)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ei_smp_uri (str _smp_uri)
+ei_smp_rest_sc (str _smp_rest_sc) </t>
+  </si>
+  <si>
+    <t>ei_smp_doc (obj) - The XML document returned from the call to the SMP.  Should contain the URI to the next the Access Point and the service codes of the participant.</t>
+  </si>
+  <si>
+    <t>This will be REST request per a standard API.  Returns an XML object with service capability codes included and URI to next Accpess Point,</t>
+  </si>
+  <si>
+    <t>Obtains dns server and port from ei_conf.py
+ei_handler manages calls to ei_sml_lookup, ei_smp_query, and final handoff to ei_delivery _gateway
+Additional variables which aren't taken in as Args or Returned directly are:
+ei_sml_lookup (str _sml_lookup) - The formatted look-up string to be used in the SML UNAPTR DNS look-up.
+ei_sml_dns_srv_addr (str _sml_dns_srvr) - The IP address or DNS of the look-up DNS server for the SML from config file
+ei_sml_dns_srv_port (str _sml_port) - The Port # of the DNS Server for the SML to be used (if varied from standard) from config file.
+ei_smp_uri (str _sml_uri) - The URI returned from the SML (ei_sml_lookup() call).
+ei_smp_rest_sc (str _smp_rest_sc) - The REST API service call to be made to the SMP to obtain service details.   
+ei_smp_response(obj _smp_response) - the document returned from the SMP in  XML format to be parsed to extract service codes and URI of next Access Point.</t>
+  </si>
+  <si>
+    <t>ei_delivery_addr (str _delivery_addr),
+ei_participant_svcs(dict _participant_svcs) 
+einvoice (str _einvoice)</t>
+  </si>
+  <si>
+    <t>Interface to abstract hand-off from discovery components to delivery.
+Includes the URI of the next Access Point as a string, the participant service details as a dictionary, and the einvoice as a string in JSON format.</t>
+  </si>
+  <si>
+    <t>Defaults are hard coded into original file, however can be overloaded in the config if desired.</t>
+  </si>
+  <si>
+    <t>When called it returns a dictionary of configuration values containing any specific values to be implemented by the calling module.</t>
+  </si>
+  <si>
+    <t>This would be an appropriate place for a helper or worker class to read/write a JSON file so it doesn't have to be any of the other files because that functionality is going to be required in any case.  (So move from eivonice to the config tool.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Is a JSON file containing the dictionary of configuration values used by the package &amp; modules.  </t>
+  </si>
+  <si>
+    <t>ei_config_active.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs functions to:
+Read a JSON file (extensible)
+Write/Modify a JSON file (extensible)
+For config file only - Look for a default file of extension JSON - allow for multiple versions by being able to specifiy which file contains the desired version.  Save a version with a new name (probably should have date stamp on it too) if desired.  Default version will have include "_active" in file name to show it's the live version.   </t>
+  </si>
+  <si>
+    <t>conf</t>
   </si>
 </sst>
 </file>
@@ -325,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -379,6 +428,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,22 +749,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831AC169-29B6-4AAD-94F3-54C801B77F3B}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="7" width="51.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="41.1640625" customWidth="1"/>
+    <col min="5" max="5" width="52.6640625" customWidth="1"/>
+    <col min="6" max="6" width="52.83203125" customWidth="1"/>
+    <col min="7" max="7" width="89" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -730,7 +785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
@@ -739,127 +794,129 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="16"/>
       <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="192" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="16"/>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="16"/>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="16"/>
       <c r="C9" s="6" t="s">
@@ -867,90 +924,114 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="D10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E10" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>40</v>
+      <c r="B12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="13" t="s">
-        <v>48</v>
+      <c r="F13" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="3" t="s">
-        <v>47</v>
+      <c r="C14" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="7" t="s">
-        <v>49</v>
+      <c r="F14" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="G14" s="5"/>
     </row>
+    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B2:B10"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B2:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
